--- a/customSim/LES/systemDefinition/Resource.xlsx
+++ b/customSim/LES/systemDefinition/Resource.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,30 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>availability</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>staged_products</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>capacity</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>aggregates</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>kwargs</t>
         </is>

--- a/customSim/LES/systemDefinition/Resource.xlsx
+++ b/customSim/LES/systemDefinition/Resource.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:N1"/>
+  <dimension ref="B1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,40 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>material_nature</t>
+          <t>units</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>cost_per_unit</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cost_per_unit</t>
+          <t>parts</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>availability</t>
+          <t>capacity</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>staged_products</t>
+          <t>holding_capacity</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>capacity</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>aggregates</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>aggregates</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>kwargs</t>
         </is>

--- a/customSim/LES/systemDefinition/Resource.xlsx
+++ b/customSim/LES/systemDefinition/Resource.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="B1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>aggregates</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kwargs</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customSim/LES/systemDefinition/Resource.xlsx
+++ b/customSim/LES/systemDefinition/Resource.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resource" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resource" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,1005 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cost_per_unit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>parts</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>holding_capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>aggregates</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>upstream_processes</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>downstream_processes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>res_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>resource_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>station</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>res_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>resource_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lts/min</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>res_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>resource_3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>650</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>res_4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>resource_4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>res_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>resource_5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>kgs/min</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['process_1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>res_6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>resource_6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>650</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>res_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>resource_7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>res_8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>resource_8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>parts/min</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>res_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>resource_9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>650</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>245</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>res_10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>resource_10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>56</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>res_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>resource_11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>tonnes/min</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>res_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>resource_12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>650</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>res_13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>resource_13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>36</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>res_14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>resource_14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mm/min</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>63</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>res_15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>resource_15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>650</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>452</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +1488,974 @@
           <t>aggregates</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>upstream_processes</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>downstream_processes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>res_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>resource_1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>station</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>res_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>resource_2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>lts/min</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>res_3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>resource_3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>650</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>res_4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>resource_4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>res_5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>resource_5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kgs/min</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['process_1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>res_6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>resource_6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>650</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>res_7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>resource_7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>35</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>res_8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>resource_8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>parts/min</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>res_9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>resource_9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>650</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>245</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>res_10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>resource_10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>56</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>res_11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>resource_11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>tonnes/min</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>res_12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>resource_12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>650</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>res_13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>resource_13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>res_14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>resource_14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>supply</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mm/min</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>63</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>res_15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>resource_15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>pieces</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>650</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>452</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
